--- a/results/Participation_Marks.xlsx
+++ b/results/Participation_Marks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1320,16 +1320,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10133@ualberta.ca</t>
+          <t>10134@ualberta.ca</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1338,16 +1338,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10134@ualberta.ca</t>
+          <t>10135@ualberta.ca</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="52">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10135@ualberta.ca</t>
+          <t>10136@ualberta.ca</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10136@ualberta.ca</t>
+          <t>10137@ualberta.ca</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54">
@@ -1392,16 +1392,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10137@ualberta.ca</t>
+          <t>10138@ualberta.ca</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="55">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10138@ualberta.ca</t>
+          <t>10139@ualberta.ca</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="56">
@@ -1428,16 +1428,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10139@ualberta.ca</t>
+          <t>1013@ualberta.ca</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="57">
@@ -1446,16 +1446,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1013@ualberta.ca</t>
+          <t>10140@ualberta.ca</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10140@ualberta.ca</t>
+          <t>10141@ualberta.ca</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10141@ualberta.ca</t>
+          <t>10142@ualberta.ca</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10142@ualberta.ca</t>
+          <t>10143@ualberta.ca</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="61">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10143@ualberta.ca</t>
+          <t>10144@ualberta.ca</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10144@ualberta.ca</t>
+          <t>10146@ualberta.ca</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10146@ualberta.ca</t>
+          <t>10147@ualberta.ca</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="64">
@@ -1572,16 +1572,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10147@ualberta.ca</t>
+          <t>10148@ualberta.ca</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10148@ualberta.ca</t>
+          <t>10149@ualberta.ca</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="66">
@@ -1608,16 +1608,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10149@ualberta.ca</t>
+          <t>1014@ualberta.ca</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1014@ualberta.ca</t>
+          <t>10150@ualberta.ca</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10150@ualberta.ca</t>
+          <t>10151@ualberta.ca</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="69">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10151@ualberta.ca</t>
+          <t>10152@ualberta.ca</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10152@ualberta.ca</t>
+          <t>10153@ualberta.ca</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="71">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10153@ualberta.ca</t>
+          <t>10154@ualberta.ca</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10154@ualberta.ca</t>
+          <t>10155@ualberta.ca</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10155@ualberta.ca</t>
+          <t>10156@ualberta.ca</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10156@ualberta.ca</t>
+          <t>10157@ualberta.ca</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="75">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10157@ualberta.ca</t>
+          <t>10158@ualberta.ca</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10158@ualberta.ca</t>
+          <t>10159@ualberta.ca</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="77">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10159@ualberta.ca</t>
+          <t>1015@ualberta.ca</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1824,16 +1824,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1015@ualberta.ca</t>
+          <t>10160@ualberta.ca</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="79">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10160@ualberta.ca</t>
+          <t>10161@ualberta.ca</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1860,16 +1860,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10161@ualberta.ca</t>
+          <t>10162@ualberta.ca</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="81">
@@ -1878,16 +1878,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10162@ualberta.ca</t>
+          <t>10163@ualberta.ca</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1896,16 +1896,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10163@ualberta.ca</t>
+          <t>10164@ualberta.ca</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="83">
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>10164@ualberta.ca</t>
+          <t>10165@ualberta.ca</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>10165@ualberta.ca</t>
+          <t>10166@ualberta.ca</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="85">
@@ -1950,16 +1950,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10166@ualberta.ca</t>
+          <t>10167@ualberta.ca</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10167@ualberta.ca</t>
+          <t>10168@ualberta.ca</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1986,16 +1986,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10168@ualberta.ca</t>
+          <t>1016@ualberta.ca</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="88">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1016@ualberta.ca</t>
+          <t>1017@ualberta.ca</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1017@ualberta.ca</t>
+          <t>1018@ualberta.ca</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1018@ualberta.ca</t>
+          <t>1019@ualberta.ca</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="91">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1019@ualberta.ca</t>
+          <t>1020@ualberta.ca</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1020@ualberta.ca</t>
+          <t>1021@ualberta.ca</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="93">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1021@ualberta.ca</t>
+          <t>1022@ualberta.ca</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="94">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1022@ualberta.ca</t>
+          <t>1023@ualberta.ca</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1023@ualberta.ca</t>
+          <t>1024@ualberta.ca</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1024@ualberta.ca</t>
+          <t>1025@ualberta.ca</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="97">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1025@ualberta.ca</t>
+          <t>1026@ualberta.ca</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="98">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1026@ualberta.ca</t>
+          <t>1027@ualberta.ca</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1027@ualberta.ca</t>
+          <t>1028@ualberta.ca</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1028@ualberta.ca</t>
+          <t>1029@ualberta.ca</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -2238,7 +2238,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1029@ualberta.ca</t>
+          <t>1030@ualberta.ca</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="102">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1030@ualberta.ca</t>
+          <t>1031@ualberta.ca</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1031@ualberta.ca</t>
+          <t>1032@ualberta.ca</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1032@ualberta.ca</t>
+          <t>1033@ualberta.ca</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="105">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1033@ualberta.ca</t>
+          <t>1034@ualberta.ca</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1034@ualberta.ca</t>
+          <t>1035@ualberta.ca</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="107">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1035@ualberta.ca</t>
+          <t>1036@ualberta.ca</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1036@ualberta.ca</t>
+          <t>1037@ualberta.ca</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1037@ualberta.ca</t>
+          <t>1038@ualberta.ca</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1038@ualberta.ca</t>
+          <t>1039@ualberta.ca</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1039@ualberta.ca</t>
+          <t>1040@ualberta.ca</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>1040@ualberta.ca</t>
+          <t>1041@ualberta.ca</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="113">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1041@ualberta.ca</t>
+          <t>1042@ualberta.ca</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1042@ualberta.ca</t>
+          <t>1043@ualberta.ca</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="115">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1043@ualberta.ca</t>
+          <t>1044@ualberta.ca</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="116">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>1044@ualberta.ca</t>
+          <t>1045@ualberta.ca</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="117">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1045@ualberta.ca</t>
+          <t>1046@ualberta.ca</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2535,7 +2535,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="118">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>1046@ualberta.ca</t>
+          <t>1047@ualberta.ca</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="119">
@@ -2562,12 +2562,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>1047@ualberta.ca</t>
+          <t>1048@ualberta.ca</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Section A03, 12:30-1:20 pm on Tuesday and Thursday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1048@ualberta.ca</t>
+          <t>1049@ualberta.ca</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>1049@ualberta.ca</t>
+          <t>1050@ualberta.ca</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1050@ualberta.ca</t>
+          <t>1051@ualberta.ca</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1051@ualberta.ca</t>
+          <t>1052@ualberta.ca</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2643,7 +2643,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="124">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>1052@ualberta.ca</t>
+          <t>1053@ualberta.ca</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>1053@ualberta.ca</t>
+          <t>1054@ualberta.ca</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2679,7 +2679,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="126">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1054@ualberta.ca</t>
+          <t>1055@ualberta.ca</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1055@ualberta.ca</t>
+          <t>1056@ualberta.ca</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2715,7 +2715,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1056@ualberta.ca</t>
+          <t>1057@ualberta.ca</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1057@ualberta.ca</t>
+          <t>1058@ualberta.ca</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="130">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1058@ualberta.ca</t>
+          <t>1059@ualberta.ca</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2769,7 +2769,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="131">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1059@ualberta.ca</t>
+          <t>1060@ualberta.ca</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>1060@ualberta.ca</t>
+          <t>1061@ualberta.ca</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2805,7 +2805,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1061@ualberta.ca</t>
+          <t>1062@ualberta.ca</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1062@ualberta.ca</t>
+          <t>1063@ualberta.ca</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="135">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>1063@ualberta.ca</t>
+          <t>1064@ualberta.ca</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1064@ualberta.ca</t>
+          <t>1065@ualberta.ca</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>1065@ualberta.ca</t>
+          <t>1066@ualberta.ca</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>1066@ualberta.ca</t>
+          <t>1067@ualberta.ca</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>1067@ualberta.ca</t>
+          <t>1068@ualberta.ca</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1068@ualberta.ca</t>
+          <t>1069@ualberta.ca</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>1069@ualberta.ca</t>
+          <t>1070@ualberta.ca</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="142">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>1070@ualberta.ca</t>
+          <t>1071@ualberta.ca</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="143">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>1071@ualberta.ca</t>
+          <t>1072@ualberta.ca</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>1072@ualberta.ca</t>
+          <t>1073@ualberta.ca</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>1073@ualberta.ca</t>
+          <t>1074@ualberta.ca</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1074@ualberta.ca</t>
+          <t>1075@ualberta.ca</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1075@ualberta.ca</t>
+          <t>1076@ualberta.ca</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
@@ -3089,11 +3089,11 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="149">
@@ -3102,16 +3102,16 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>1076@ualberta.ca</t>
+          <t>1077@ualberta.ca</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
+          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="150">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1077@ualberta.ca</t>
+          <t>1078@ualberta.ca</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="151">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>1078@ualberta.ca</t>
+          <t>1079@ualberta.ca</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1079@ualberta.ca</t>
+          <t>1080@ualberta.ca</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>1080@ualberta.ca</t>
+          <t>1081@ualberta.ca</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1081@ualberta.ca</t>
+          <t>1082@ualberta.ca</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="155">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>1082@ualberta.ca</t>
+          <t>1083@ualberta.ca</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>1083@ualberta.ca</t>
+          <t>1084@ualberta.ca</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="157">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1084@ualberta.ca</t>
+          <t>1085@ualberta.ca</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="158">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1085@ualberta.ca</t>
+          <t>1086@ualberta.ca</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>1086@ualberta.ca</t>
+          <t>1087@ualberta.ca</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1087@ualberta.ca</t>
+          <t>1088@ualberta.ca</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1088@ualberta.ca</t>
+          <t>1089@ualberta.ca</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>1089@ualberta.ca</t>
+          <t>1090@ualberta.ca</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3345,7 +3345,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>1090@ualberta.ca</t>
+          <t>1091@ualberta.ca</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="164">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>1091@ualberta.ca</t>
+          <t>1092@ualberta.ca</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3390,12 +3390,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1092@ualberta.ca</t>
+          <t>1093@ualberta.ca</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Section A04, 2-3 pm on Monday and Wednesday</t>
+          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>1093@ualberta.ca</t>
+          <t>1094@ualberta.ca</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>1094@ualberta.ca</t>
+          <t>1095@ualberta.ca</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>1095@ualberta.ca</t>
+          <t>1096@ualberta.ca</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>1096@ualberta.ca</t>
+          <t>1097@ualberta.ca</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="170">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1097@ualberta.ca</t>
+          <t>1098@ualberta.ca</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3489,7 +3489,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="171">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>1098@ualberta.ca</t>
+          <t>1099@ualberta.ca</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3507,25 +3507,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>1099@ualberta.ca</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Section A06, 3-4 pm on Monday and Wednesday</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
